--- a/data/tmpl/TchUsrInfoTmpl.xlsx
+++ b/data/tmpl/TchUsrInfoTmpl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Website\data\tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FB819C-27EA-4860-9C32-0B152DB5A1F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0016BF9-2970-4C18-A91D-CAB55006B7C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -649,12 +649,6 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -672,6 +666,12 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -962,7 +962,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -975,42 +975,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:6" ht="55.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1063,578 +1063,578 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="7" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="7" t="s">
+      <c r="F1" s="6"/>
+      <c r="G1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="8"/>
-      <c r="J1" s="7" t="s">
+      <c r="I1" s="6"/>
+      <c r="J1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="8"/>
-      <c r="M1" s="7" t="s">
+      <c r="L1" s="6"/>
+      <c r="M1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="9" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="9" t="s">
+      <c r="F2" s="8"/>
+      <c r="G2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="9" t="s">
+      <c r="I2" s="8"/>
+      <c r="J2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="10"/>
-      <c r="M2" s="9" t="s">
+      <c r="L2" s="8"/>
+      <c r="M2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="9" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="9" t="s">
+      <c r="F3" s="8"/>
+      <c r="G3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="9" t="s">
+      <c r="I3" s="8"/>
+      <c r="J3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="10"/>
-      <c r="M3" s="9" t="s">
+      <c r="L3" s="8"/>
+      <c r="M3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="9" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="9" t="s">
+      <c r="F4" s="8"/>
+      <c r="G4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="10"/>
-      <c r="J4" s="9" t="s">
+      <c r="I4" s="8"/>
+      <c r="J4" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="L4" s="10"/>
-      <c r="M4" s="9" t="s">
+      <c r="L4" s="8"/>
+      <c r="M4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="7" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="9" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="9" t="s">
+      <c r="F5" s="8"/>
+      <c r="G5" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="9" t="s">
+      <c r="I5" s="8"/>
+      <c r="J5" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="L5" s="10"/>
-      <c r="M5" s="9" t="s">
+      <c r="L5" s="8"/>
+      <c r="M5" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="N5" s="9" t="s">
+      <c r="N5" s="7" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="9" t="s">
+      <c r="C6" s="8"/>
+      <c r="D6" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="9" t="s">
+      <c r="F6" s="8"/>
+      <c r="G6" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="9" t="s">
+      <c r="I6" s="8"/>
+      <c r="J6" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="L6" s="10"/>
-      <c r="M6" s="9" t="s">
+      <c r="L6" s="8"/>
+      <c r="M6" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="N6" s="7" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="9" t="s">
+      <c r="C7" s="8"/>
+      <c r="D7" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="9" t="s">
+      <c r="F7" s="8"/>
+      <c r="G7" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="9" t="s">
+      <c r="I7" s="8"/>
+      <c r="J7" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="L7" s="10"/>
-      <c r="M7" s="9" t="s">
+      <c r="L7" s="8"/>
+      <c r="M7" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="N7" s="9" t="s">
+      <c r="N7" s="7" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="9" t="s">
+      <c r="C8" s="8"/>
+      <c r="D8" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="9" t="s">
+      <c r="F8" s="8"/>
+      <c r="G8" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="9" t="s">
+      <c r="I8" s="8"/>
+      <c r="J8" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="K8" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="L8" s="10"/>
-      <c r="M8" s="9" t="s">
+      <c r="L8" s="8"/>
+      <c r="M8" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="N8" s="9" t="s">
+      <c r="N8" s="7" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="9" t="s">
+      <c r="C9" s="8"/>
+      <c r="D9" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="9" t="s">
+      <c r="F9" s="8"/>
+      <c r="G9" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="I9" s="10"/>
-      <c r="J9" s="9" t="s">
+      <c r="I9" s="8"/>
+      <c r="J9" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="K9" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="L9" s="10"/>
-      <c r="M9" s="9" t="s">
+      <c r="L9" s="8"/>
+      <c r="M9" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="N9" s="9" t="s">
+      <c r="N9" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="9" t="s">
+      <c r="C10" s="8"/>
+      <c r="D10" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="9" t="s">
+      <c r="F10" s="8"/>
+      <c r="G10" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="I10" s="10"/>
-      <c r="J10" s="9" t="s">
+      <c r="I10" s="8"/>
+      <c r="J10" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="K10" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="L10" s="10"/>
-      <c r="M10" s="9" t="s">
+      <c r="L10" s="8"/>
+      <c r="M10" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="N10" s="9" t="s">
+      <c r="N10" s="7" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="9" t="s">
+      <c r="C11" s="8"/>
+      <c r="D11" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="9" t="s">
+      <c r="F11" s="8"/>
+      <c r="G11" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="9" t="s">
+      <c r="I11" s="8"/>
+      <c r="J11" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="K11" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="L11" s="10"/>
-      <c r="M11" s="9" t="s">
+      <c r="L11" s="8"/>
+      <c r="M11" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="N11" s="9" t="s">
+      <c r="N11" s="7" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="9" t="s">
+      <c r="C12" s="8"/>
+      <c r="D12" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="9" t="s">
+      <c r="F12" s="8"/>
+      <c r="G12" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="I12" s="10"/>
-      <c r="J12" s="9" t="s">
+      <c r="I12" s="8"/>
+      <c r="J12" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K12" s="9" t="s">
+      <c r="K12" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="L12" s="10"/>
-      <c r="M12" s="9" t="s">
+      <c r="L12" s="8"/>
+      <c r="M12" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="N12" s="9" t="s">
+      <c r="N12" s="7" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="9" t="s">
+      <c r="C13" s="8"/>
+      <c r="D13" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="9" t="s">
+      <c r="F13" s="8"/>
+      <c r="G13" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="I13" s="10"/>
-      <c r="J13" s="9" t="s">
+      <c r="I13" s="8"/>
+      <c r="J13" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K13" s="9" t="s">
+      <c r="K13" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="L13" s="10"/>
-      <c r="M13" s="9" t="s">
+      <c r="L13" s="8"/>
+      <c r="M13" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="N13" s="9" t="s">
+      <c r="N13" s="7" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="9" t="s">
+      <c r="C14" s="8"/>
+      <c r="D14" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="9" t="s">
+      <c r="F14" s="8"/>
+      <c r="G14" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="I14" s="10"/>
-      <c r="J14" s="9" t="s">
+      <c r="I14" s="8"/>
+      <c r="J14" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K14" s="9" t="s">
+      <c r="K14" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="L14" s="10"/>
-      <c r="M14" s="9" t="s">
+      <c r="L14" s="8"/>
+      <c r="M14" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="N14" s="9" t="s">
+      <c r="N14" s="7" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="9" t="s">
+      <c r="C15" s="8"/>
+      <c r="D15" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="9" t="s">
+      <c r="F15" s="8"/>
+      <c r="G15" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="I15" s="10"/>
-      <c r="J15" s="9" t="s">
+      <c r="I15" s="8"/>
+      <c r="J15" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="K15" s="9" t="s">
+      <c r="K15" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="L15" s="10"/>
-      <c r="M15" s="9" t="s">
+      <c r="L15" s="8"/>
+      <c r="M15" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="N15" s="9" t="s">
+      <c r="N15" s="7" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="9" t="s">
+      <c r="C16" s="8"/>
+      <c r="D16" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="9" t="s">
+      <c r="F16" s="8"/>
+      <c r="G16" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="H16" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="I16" s="10"/>
-      <c r="J16" s="9" t="s">
+      <c r="I16" s="8"/>
+      <c r="J16" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="K16" s="9" t="s">
+      <c r="K16" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="L16" s="10"/>
-      <c r="M16" s="9" t="s">
+      <c r="L16" s="8"/>
+      <c r="M16" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="N16" s="9" t="s">
+      <c r="N16" s="7" t="s">
         <v>160</v>
       </c>
     </row>
